--- a/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
+++ b/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
@@ -523,14 +523,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Temba Bavuma(C)</t>
+          <t>Martin Guptill</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,23 +547,23 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Martin Guptill</t>
+          <t>Temba Bavuma(C)</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
         <v>5</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,23 +573,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Quinton de Kock</t>
+          <t>Daryl Mitchell</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Daryl Mitchell</t>
+          <t>Quinton de Kock</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -608,12 +608,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,14 +623,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rassie Va der Dussen</t>
+          <t>Kane Williamson(C)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -639,7 +639,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,23 +647,23 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Kane Williamson(C)</t>
+          <t>Rassie Va der Dussen</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,14 +673,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aiden Markram</t>
+          <t>Devon Conway</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,23 +697,23 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Devon Conway</t>
+          <t>Aiden Markram</t>
         </is>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,23 +723,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>David Miller</t>
+          <t>Glenn Phillips</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,14 +747,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Glenn Phillips</t>
+          <t>David Miller</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,23 +773,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Reeza Hendricks</t>
+          <t>James Neesham</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,14 +797,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>James Neesham</t>
+          <t>Reeza Hendricks</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -823,14 +823,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,23 +847,23 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="L8" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -873,23 +873,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,23 +897,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Kagiso Rabada</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -923,23 +923,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,23 +947,23 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -973,23 +973,23 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -997,23 +997,23 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="L11" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1023,23 +1023,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1047,23 +1047,23 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.1</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="J16" t="n">
-        <v>168</v>
+        <v>95</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>11.2</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
@@ -1187,151 +1187,151 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L21" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Kagiso Rabada</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L24" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Adam Milne</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>21</v>
+      </c>
+      <c r="M25" t="n">
         <v>2</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Anrich Nortje</t>
-        </is>
-      </c>
-      <c r="K25" t="n">
-        <v>14</v>
-      </c>
-      <c r="L25" t="n">
-        <v>27</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
+++ b/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
@@ -527,19 +527,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,19 +551,19 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Mitchell Santner</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -627,19 +627,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -677,19 +677,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -727,19 +727,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -801,14 +801,14 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L8" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -927,19 +927,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -951,19 +951,19 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Mitchell Santner</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -977,11 +977,11 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Bowled</t>
@@ -989,7 +989,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1001,10 +1001,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1027,19 +1027,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10.1</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="J16" t="n">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>8.3</t>
+          <t>10.4</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -1187,58 +1187,58 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="L21" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>12</v>
       </c>
       <c r="L22" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
@@ -1247,91 +1247,91 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C23" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>12</v>
       </c>
       <c r="L23" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="K24" t="n">
         <v>12</v>
       </c>
       <c r="L24" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Kagiso Rabada</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L25" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
+++ b/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
@@ -523,23 +523,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Martin Guptill</t>
+          <t>Temba Bavuma(C)</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,14 +547,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Temba Bavuma(C)</t>
+          <t>Martin Guptill</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="L2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,23 +573,23 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daryl Mitchell</t>
+          <t>Quinton de Kock</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,23 +597,23 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Quinton de Kock</t>
+          <t>Daryl Mitchell</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,23 +623,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kane Williamson(C)</t>
+          <t>Rassie Va der Dussen</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,14 +647,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Rassie Va der Dussen</t>
+          <t>Kane Williamson(C)</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -663,7 +663,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,23 +673,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Devon Conway</t>
+          <t>Aiden Markram</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Mitchell Santner</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,23 +697,23 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Aiden Markram</t>
+          <t>Devon Conway</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,23 +723,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Glenn Phillips</t>
+          <t>David Miller</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Mitchell Santner</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,23 +747,23 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>David Miller</t>
+          <t>Glenn Phillips</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,14 +773,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>James Neesham</t>
+          <t>Reeza Hendricks</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,23 +797,23 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Reeza Hendricks</t>
+          <t>James Neesham</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -823,14 +823,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,14 +847,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -873,14 +873,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Kagiso Rabada</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,23 +897,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -923,14 +923,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Mitchell Santner</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,7 +947,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -958,12 +958,12 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -973,11 +973,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
@@ -997,23 +997,23 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1023,23 +1023,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1047,18 +1047,18 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>* NOT OUT</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8.1</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="J16" t="n">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>10.1</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -1197,26 +1197,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1225,19 +1225,19 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1246,17 +1246,17 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>3</v>
       </c>
       <c r="E22" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1265,19 +1265,19 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1286,57 +1286,57 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>24</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Kagiso Rabada</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
         <v>34</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>17</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Ish Sodhi</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>31</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>16.5</v>
+        <v>16.33</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1345,53 +1345,53 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>18.18</v>
+        <v>13.64</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>14.17</v>
+        <v>19.05</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
+++ b/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
@@ -523,14 +523,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Temba Bavuma(C)</t>
+          <t>Martin Guptill</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -547,23 +547,23 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Martin Guptill</t>
+          <t>Temba Bavuma(C)</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -573,7 +573,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Quinton de Kock</t>
+          <t>Daryl Mitchell</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Daryl Mitchell</t>
+          <t>Quinton de Kock</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -608,12 +608,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -623,23 +623,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rassie Van der Dussen</t>
+          <t>Kane Williamson(C)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -647,23 +647,23 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Kane Williamson(C)</t>
+          <t>Rassie Van der Dussen</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -673,23 +673,23 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aiden Markram</t>
+          <t>Devon Conway</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -697,23 +697,23 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Devon Conway</t>
+          <t>Aiden Markram</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -723,23 +723,23 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>David Miller</t>
+          <t>Glenn Phillips</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -747,14 +747,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Glenn Phillips</t>
+          <t>David Miller</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -773,14 +773,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Reeza Hendricks</t>
+          <t>James Neesham</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -797,23 +797,23 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>James Neesham</t>
+          <t>Reeza Hendricks</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -823,23 +823,23 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -847,11 +847,11 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
         <v>3</v>
@@ -863,7 +863,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -873,23 +873,23 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -897,23 +897,23 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Kagiso Rabada</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -923,23 +923,23 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -947,23 +947,23 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O10" t="n">
@@ -973,14 +973,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -997,23 +997,23 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1023,14 +1023,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitchell Santner</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>12.4</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J16" t="n">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>4.3</t>
+          <t>12.1</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -1197,87 +1197,87 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Kagiso Rabada</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>17.67</v>
+        <v>10</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1289,35 +1289,35 @@
         <v>46</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
         <v>15.33</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>11.33</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1326,72 +1326,72 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>15.67</v>
+        <v>16</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>2.1</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>3.33</v>
+        <v>15.24</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
+++ b/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +539,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O2" t="n">
@@ -584,12 +584,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,7 +613,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -627,19 +627,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Trent Boult</t>
         </is>
       </c>
       <c r="O4" t="n">
@@ -677,10 +677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> Mitchell Santner</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -751,19 +751,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -801,19 +801,19 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>2</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -858,7 +858,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -901,19 +901,19 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L9" t="n">
         <v>11</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> Tim Southee</t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -927,19 +927,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="C10" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1001,19 +1001,19 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trent Boult</t>
+          <t xml:space="preserve"> Ish Sodhi</t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1027,19 +1027,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> Adam Milne</t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1114,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>191</v>
+        <v>328</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="J16" t="n">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="K16" t="n">
         <v>10</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>12.1</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -1197,26 +1197,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D21" t="n">
         <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Adam Milne</t>
+          <t>Mitchell Santner</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1225,173 +1225,173 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>15.25</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Mitchell Santner</t>
+          <t>Trent Boult</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>18.33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>56</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Tim Southee</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>46</v>
-      </c>
-      <c r="D23" t="n">
-        <v>3</v>
-      </c>
-      <c r="E23" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Trent Boult</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
       <c r="L23" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>11.33</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>Kagiso Rabada</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>89</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Ish Sodhi</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="L24" t="n">
         <v>48</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Tim Southee</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>40</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="n">
-        <v>13.33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>15.24</v>
+        <v>10.45</v>
       </c>
     </row>
   </sheetData>

--- a/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
+++ b/tournament/matches/Chennai_SouthAfrica_vs_Delhi_NewZealand.xlsx
@@ -159,6 +159,36 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6096000" cy="4572000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -445,7 +475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -527,10 +557,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,7 +569,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -551,10 +581,10 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -577,10 +607,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -589,7 +619,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tabraiz Shamsi</t>
+          <t xml:space="preserve"> Keshav Maharaj</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -601,19 +631,19 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O3" t="n">
@@ -627,19 +657,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -651,14 +681,14 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -677,19 +707,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>LBW</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anrich Nortje</t>
+          <t xml:space="preserve"> Kagiso Rabada</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -701,14 +731,14 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -727,19 +757,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -751,19 +781,19 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t>* NOT OUT</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O6" t="n">
@@ -777,7 +807,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -789,7 +819,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kagiso Rabada</t>
+          <t xml:space="preserve"> Dwaine Pretorius</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -804,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O7" t="n">
@@ -827,19 +857,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -851,19 +881,19 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O8" t="n">
@@ -877,10 +907,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -901,19 +931,19 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tim Southee</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O9" t="n">
@@ -927,19 +957,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t>Caught</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keshav Maharaj</t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -951,14 +981,14 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -977,19 +1007,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LBW</t>
+          <t>NOT OUT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dwaine Pretorius</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1001,19 +1031,19 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Caught</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ish Sodhi</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O11" t="n">
@@ -1027,19 +1057,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NOT OUT</t>
+          <t>Bowled</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve"> Anrich Nortje</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1054,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Bowled</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adam Milne</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="O12" t="n">
@@ -1114,32 +1144,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>328</v>
+        <v>84</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>19.2</t>
+          <t>6.5</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="J16" t="n">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1197,204 +1227,205 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tabraiz Shamsi</t>
+          <t>Keshav Maharaj</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Trent Boult</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>15</v>
+      </c>
+      <c r="M21" t="n">
         <v>2</v>
       </c>
-      <c r="E21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Mitchell Santner</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>32</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
       <c r="N21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Anrich Nortje</t>
+          <t>Kagiso Rabada</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>15.25</v>
+        <v>19</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Trent Boult</t>
+          <t>Tim Southee</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>18.33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Keshav Maharaj</t>
+          <t>Dwaine Pretorius</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Tim Southee</t>
+          <t>Ish Sodhi</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6.67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Kagiso Rabada</t>
+          <t>Tabraiz Shamsi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" t="n">
-        <v>22.25</v>
+        <v>11</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Ish Sodhi</t>
+          <t>Adam Milne</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Dwaine Pretorius</t>
+          <t>Anrich Nortje</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>14</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Mitchell Santner</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>21</v>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="E25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Adam Milne</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>2.2</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>23</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
       <c r="N25" t="n">
-        <v>10.45</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>